--- a/plans/milestones&expenditures_060815.xlsx
+++ b/plans/milestones&expenditures_060815.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\migration_19092014\USHKI\Documents\Babanivskyi Product\airstar\зайцев\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero\Documents\GitHub\docs\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Project!$A$1:$H$60</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1060,7 +1060,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB67-46AC-B117-FB2C017E7A30}"/>
             </c:ext>
@@ -1088,8 +1088,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197345280"/>
-        <c:axId val="197346816"/>
+        <c:axId val="1951042672"/>
+        <c:axId val="1951042128"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1136,12 +1136,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{706DF842-9B14-4DA2-857F-2E63BD809A7D}</c15:txfldGUID>
+                      <c15:txfldGUID>{CEC5E1C3-A7EF-4DF8-87E5-600AA9697936}</c15:txfldGUID>
                       <c15:f>Project!$H$31</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1152,9 +1155,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1179,12 +1179,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4BC67467-49C3-4A11-9FD3-35134672EC92}</c15:txfldGUID>
+                      <c15:txfldGUID>{00949E06-5CC7-460A-B144-CFBE1AC2AE6B}</c15:txfldGUID>
                       <c15:f>Project!$H$32</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1195,9 +1198,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1222,12 +1222,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B3C7887D-95E3-47CE-84C3-15D0FCB122D6}</c15:txfldGUID>
+                      <c15:txfldGUID>{ED491EA1-3C53-43B5-A330-766EFB6B156F}</c15:txfldGUID>
                       <c15:f>Project!$H$33</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1238,9 +1241,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1265,12 +1265,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FDDFCA76-FB97-4383-9A43-6D976A11F5DE}</c15:txfldGUID>
+                      <c15:txfldGUID>{D5D89C2C-7E3F-4C6F-A3DB-92485EE5C85B}</c15:txfldGUID>
                       <c15:f>Project!$H$34</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1281,9 +1284,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1308,12 +1308,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{43416CFF-49B9-46A1-8604-CE9BB0ACC47D}</c15:txfldGUID>
+                      <c15:txfldGUID>{BFA2D619-AC42-4EEE-9433-83AC17F2F3FE}</c15:txfldGUID>
                       <c15:f>Project!$H$35</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1324,9 +1327,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1351,12 +1351,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4C3CA174-2B28-4943-8E76-AEEB95E1C329}</c15:txfldGUID>
+                      <c15:txfldGUID>{373C0E6A-7457-41B1-8F25-B42D1C63D0A3}</c15:txfldGUID>
                       <c15:f>Project!$H$36</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1367,9 +1370,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1394,12 +1394,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0E6CEF8C-C919-48C1-BF76-3FA2C9558D5C}</c15:txfldGUID>
+                      <c15:txfldGUID>{192489BF-F31C-4536-B441-C730577B8F5C}</c15:txfldGUID>
                       <c15:f>Project!$H$37</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1410,9 +1413,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1437,12 +1437,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7C05048A-C40A-458F-9854-44E5BC331250}</c15:txfldGUID>
+                      <c15:txfldGUID>{5160A4D0-5714-4B53-947A-0CE6815DB900}</c15:txfldGUID>
                       <c15:f>Project!$H$38</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1453,9 +1456,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1480,12 +1480,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{13038200-E331-47D1-94D6-A5C6908E9546}</c15:txfldGUID>
+                      <c15:txfldGUID>{41122873-6791-49F9-879D-FEF49CA25D98}</c15:txfldGUID>
                       <c15:f>Project!$H$39</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1496,9 +1499,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1523,12 +1523,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{368B000C-38AD-43CA-B115-47B9CC410EB8}</c15:txfldGUID>
+                      <c15:txfldGUID>{202383D9-8861-40A3-AB81-E6F59B5BF4EB}</c15:txfldGUID>
                       <c15:f>Project!$H$40</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1539,9 +1542,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1566,12 +1566,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{20FF65D0-BD2B-4F13-8EC8-BDA37A505ECA}</c15:txfldGUID>
+                      <c15:txfldGUID>{1076B81B-1718-4F6F-B03A-038762DE5E1C}</c15:txfldGUID>
                       <c15:f>Project!$H$41</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1582,9 +1585,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1609,12 +1609,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C5A48887-AB7A-4899-994C-6B3BCD354457}</c15:txfldGUID>
+                      <c15:txfldGUID>{C7AE14DF-D5A5-43D4-9EFD-23626DFCCF2E}</c15:txfldGUID>
                       <c15:f>Project!$H$42</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1625,9 +1628,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1652,12 +1652,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BBF21B4B-67BF-407A-93DB-D22010DC5FFA}</c15:txfldGUID>
+                      <c15:txfldGUID>{EBF64134-A4C4-4E7E-874B-8366C975C06F}</c15:txfldGUID>
                       <c15:f>Project!$H$43</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1668,9 +1671,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1695,12 +1695,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6083E53A-6E07-43EE-97CD-96B8BA6A6BD9}</c15:txfldGUID>
+                      <c15:txfldGUID>{1B25C90B-8A28-408D-9369-34552CCC5DB3}</c15:txfldGUID>
                       <c15:f>Project!$H$44</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1711,9 +1714,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1738,12 +1738,15 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D055C000-CB00-47AA-8713-74EFCC789361}</c15:txfldGUID>
+                      <c15:txfldGUID>{B9EB60F8-3401-4764-8389-37ED6F257F1A}</c15:txfldGUID>
                       <c15:f>Project!$H$45</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1755,14 +1758,10 @@
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-FB67-46AC-B117-FB2C017E7A30}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Project!$H$46</c:f>
@@ -1781,12 +1780,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{631520C1-49F4-4922-BBF4-0CDEB448DFA9}</c15:txfldGUID>
+                      <c15:txfldGUID>{75107077-DCB9-449C-BD91-86474F902A06}</c15:txfldGUID>
                       <c15:f>Project!$H$46</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1798,14 +1799,10 @@
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-FB67-46AC-B117-FB2C017E7A30}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
               <c:tx>
                 <c:strRef>
                   <c:f>Project!$H$47</c:f>
@@ -1824,12 +1821,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AD710E69-98AE-4C96-B212-D5DCF1C1B0B9}</c15:txfldGUID>
+                      <c15:txfldGUID>{F619962C-2C67-41D1-B77E-4B6B5B914D96}</c15:txfldGUID>
                       <c15:f>Project!$H$47</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1840,9 +1839,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1866,11 +1862,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4B5A9D7E-8342-44F6-AEFA-E1EF953AE25C}</c15:txfldGUID>
+                      <c15:txfldGUID>{76E7DBF2-5800-44D6-A4C1-6C690618156B}</c15:txfldGUID>
                       <c15:f>Project!$H$48</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1881,9 +1880,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1907,11 +1903,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{258F44E9-16DE-4366-892A-B68F6C14D18A}</c15:txfldGUID>
+                      <c15:txfldGUID>{A67B9915-A93E-4047-98CB-43C95B4F0B12}</c15:txfldGUID>
                       <c15:f>Project!$H$49</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1922,9 +1921,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1948,11 +1944,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1FFD82ED-AC01-4019-B74A-A684BD4866E0}</c15:txfldGUID>
+                      <c15:txfldGUID>{4E804B25-E08F-4D32-97D9-970FC742B629}</c15:txfldGUID>
                       <c15:f>Project!$H$50</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -1963,9 +1962,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1989,11 +1985,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1DC00944-17F5-4123-843F-84D45EAB2634}</c15:txfldGUID>
+                      <c15:txfldGUID>{C39A0576-FBA3-4F32-A958-19621A046B29}</c15:txfldGUID>
                       <c15:f>Project!$H$51</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2004,9 +2003,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2030,11 +2026,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{547124E9-B063-422C-923E-B49FD2182834}</c15:txfldGUID>
+                      <c15:txfldGUID>{476331DD-071D-47E5-9F56-81F377EACC33}</c15:txfldGUID>
                       <c15:f>Project!$H$52</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2045,9 +2044,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2071,11 +2067,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0407D9D3-540C-4B39-B82A-4D8A6C642AB0}</c15:txfldGUID>
+                      <c15:txfldGUID>{A19223F5-A0B0-4A42-BC70-591248DFEA5E}</c15:txfldGUID>
                       <c15:f>Project!$H$53</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2086,9 +2085,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2112,11 +2108,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4B05FD4A-A701-4EDF-9421-E9080C4509D2}</c15:txfldGUID>
+                      <c15:txfldGUID>{24CC2809-6525-4D3E-9909-A1E90E7843C9}</c15:txfldGUID>
                       <c15:f>Project!$H$54</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2127,9 +2126,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2153,11 +2149,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AE5BE731-DE75-4A9F-BC6C-38C6E4435D04}</c15:txfldGUID>
+                      <c15:txfldGUID>{EAC2656A-B85C-4962-8B0D-56416A3C6866}</c15:txfldGUID>
                       <c15:f>Project!$H$55</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2168,9 +2167,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2194,11 +2190,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{60EF9076-C40C-4F6C-92C5-E8E289821814}</c15:txfldGUID>
+                      <c15:txfldGUID>{26968D46-0257-4895-B74F-D34C64A85B79}</c15:txfldGUID>
                       <c15:f>Project!$H$56</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2209,9 +2208,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2235,11 +2231,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AFC9F09D-2C2B-40AD-A513-5A136D546857}</c15:txfldGUID>
+                      <c15:txfldGUID>{299FA5FC-6846-4DC1-A77D-08F3386D8949}</c15:txfldGUID>
                       <c15:f>Project!$H$57</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2250,9 +2249,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2276,11 +2272,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3285E994-ABF6-4E2B-B2FB-89792DCFE989}</c15:txfldGUID>
+                      <c15:txfldGUID>{5D28BB4F-BE73-4107-A3C6-6B841F1024E9}</c15:txfldGUID>
                       <c15:f>Project!$H$58</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2291,9 +2290,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2317,11 +2313,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6D250C3A-2A7A-41AE-BFC6-46C8A9A34CF1}</c15:txfldGUID>
+                      <c15:txfldGUID>{44930B8F-1F0D-4929-A1D7-235D1BA2C2B0}</c15:txfldGUID>
                       <c15:f>Project!$H$59</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2332,9 +2331,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2358,11 +2354,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{56EF62EF-EB2F-4576-94E9-B2E8DAAE9DFE}</c15:txfldGUID>
+                      <c15:txfldGUID>{50EE8A91-212A-4A37-951C-5893414EB12D}</c15:txfldGUID>
                       <c15:f>Project!$H$60</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2373,9 +2372,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2399,11 +2395,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{33641915-1AE6-4756-ADD4-A5BC1BD46C96}</c15:txfldGUID>
+                      <c15:txfldGUID>{8F3162F2-78D7-4446-B8F8-31627FEC40C3}</c15:txfldGUID>
                       <c15:f>Project!$H$61</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2414,9 +2413,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2440,11 +2436,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{345A59DB-078B-4FF0-8E32-2C51366BCD11}</c15:txfldGUID>
+                      <c15:txfldGUID>{08166F66-8B1C-46F0-A074-B5979C4A6860}</c15:txfldGUID>
                       <c15:f>Project!$H$62</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2455,9 +2454,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2481,11 +2477,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8FA7E777-C24C-489F-8164-AB4A7D86E94B}</c15:txfldGUID>
+                      <c15:txfldGUID>{BAB2E616-68DC-4709-98C5-F1DA9288E8A5}</c15:txfldGUID>
                       <c15:f>Project!$H$63</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2496,9 +2495,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2522,11 +2518,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BC659F5D-1E5B-44A4-9A99-01DFC63DBFC0}</c15:txfldGUID>
+                      <c15:txfldGUID>{CADEDEDE-BF5E-41F9-A8EC-12D89504655E}</c15:txfldGUID>
                       <c15:f>Project!$H$64</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2537,9 +2536,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2563,11 +2559,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5ACE41D1-58BB-483D-A6CA-7336A2FCFAEC}</c15:txfldGUID>
+                      <c15:txfldGUID>{232E5FEC-559E-49A4-A83B-894857E93EF7}</c15:txfldGUID>
                       <c15:f>Project!$H$65</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2578,9 +2577,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2604,11 +2600,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D8A0B4AD-096A-4BCE-B5AA-B700CB468A6D}</c15:txfldGUID>
+                      <c15:txfldGUID>{4902B47F-14A2-474C-BFDD-29329B282E8E}</c15:txfldGUID>
                       <c15:f>Project!$H$66</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2619,9 +2618,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2645,11 +2641,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2E7FC86D-17DE-4A2E-B881-C106891C6C06}</c15:txfldGUID>
+                      <c15:txfldGUID>{5E264706-56FF-4B02-BCB3-DD8E24451D4B}</c15:txfldGUID>
                       <c15:f>Project!$H$67</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2660,9 +2659,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2686,11 +2682,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FAA2BB54-51AB-4B82-B040-4F2367BBDA8E}</c15:txfldGUID>
+                      <c15:txfldGUID>{A3176C17-D42F-4895-AAA3-6624CAD8C446}</c15:txfldGUID>
                       <c15:f>Project!$H$68</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2701,9 +2700,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2727,11 +2723,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4B3A3C1F-50FA-4AF5-9659-F42FD43C35E3}</c15:txfldGUID>
+                      <c15:txfldGUID>{1024299A-FE0A-402D-8629-B759FD75088F}</c15:txfldGUID>
                       <c15:f>Project!$H$69</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2742,9 +2741,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2768,11 +2764,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F5BC2D23-2C8D-48C7-B78A-F2BA57C8DCF2}</c15:txfldGUID>
+                      <c15:txfldGUID>{80138D83-74F3-449C-A3FC-C25BC71882AE}</c15:txfldGUID>
                       <c15:f>Project!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2783,9 +2782,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2809,11 +2805,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{231A43F3-80D9-4E7E-AEB9-39B54F759416}</c15:txfldGUID>
+                      <c15:txfldGUID>{A022708E-B63E-47BE-9EF0-B2C69A686C70}</c15:txfldGUID>
                       <c15:f>Project!$H$71</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2824,9 +2823,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2850,11 +2846,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B729FEA1-1712-4894-BF7B-9CB1EB08292A}</c15:txfldGUID>
+                      <c15:txfldGUID>{28F9966E-163F-439E-89B1-DB9A84A0429C}</c15:txfldGUID>
                       <c15:f>Project!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2865,9 +2864,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2891,11 +2887,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F24B6141-8817-4004-AC80-28476A8569A4}</c15:txfldGUID>
+                      <c15:txfldGUID>{7179C123-BFF2-4BDA-901B-302BBCF556D7}</c15:txfldGUID>
                       <c15:f>Project!$H$73</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2906,9 +2905,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2932,11 +2928,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A0FEAA9C-9EB3-44EC-8D29-B6DF20A04357}</c15:txfldGUID>
+                      <c15:txfldGUID>{91E317AF-351F-4E13-B3E8-8E5E762CFC1E}</c15:txfldGUID>
                       <c15:f>Project!$H$74</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2947,9 +2946,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2973,11 +2969,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7435C288-147B-44E6-A29E-EF393B91FA1B}</c15:txfldGUID>
+                      <c15:txfldGUID>{6D5549F6-F921-4A6D-B3A4-EEF4E5CC3F5A}</c15:txfldGUID>
                       <c15:f>Project!$H$75</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -2988,9 +2987,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3014,11 +3010,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{310C3E82-783D-4044-8A37-EBB7ED1A65A1}</c15:txfldGUID>
+                      <c15:txfldGUID>{EECC71F8-0069-43FF-AFAF-7D98D263DC69}</c15:txfldGUID>
                       <c15:f>Project!$H$76</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3029,9 +3028,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3055,11 +3051,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BD392788-C79D-45BC-93C6-A41BA77BFF20}</c15:txfldGUID>
+                      <c15:txfldGUID>{01021092-A808-49B7-AC0B-44B424C7A992}</c15:txfldGUID>
                       <c15:f>Project!$H$77</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3070,9 +3069,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3096,11 +3092,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{066F2E3E-B7C5-4A47-9FAA-5F1AE6DEC808}</c15:txfldGUID>
+                      <c15:txfldGUID>{A55CEAA0-2D14-4972-838D-EF80439152C7}</c15:txfldGUID>
                       <c15:f>Project!$H$78</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3111,9 +3110,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3137,11 +3133,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AF1604DE-4680-42D1-A4B8-205E9EC6B2CF}</c15:txfldGUID>
+                      <c15:txfldGUID>{4F53E4FF-0624-45F1-99FC-6211AA9AA8C4}</c15:txfldGUID>
                       <c15:f>Project!$H$79</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3152,9 +3151,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3178,11 +3174,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-FB67-46AC-B117-FB2C017E7A30}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EE66DF34-7ABE-47C6-ABE6-6EA9DAC90117}</c15:txfldGUID>
+                      <c15:txfldGUID>{F2B52473-0695-42A9-AB5B-1DA4292C1780}</c15:txfldGUID>
                       <c15:f>Project!$H$80</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3193,9 +3192,6 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3210,7 +3206,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3532,7 +3528,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000033-FB67-46AC-B117-FB2C017E7A30}"/>
             </c:ext>
@@ -3966,7 +3962,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000034-FB67-46AC-B117-FB2C017E7A30}"/>
             </c:ext>
@@ -3994,11 +3990,11 @@
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000035-FB67-46AC-B117-FB2C017E7A30}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4026,7 +4022,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -4040,10 +4036,10 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42223</c:v>
+                  <c:v>42273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42223</c:v>
+                  <c:v>42273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,7 +4060,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000036-FB67-46AC-B117-FB2C017E7A30}"/>
             </c:ext>
@@ -4115,7 +4111,7 @@
             </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000037-FB67-46AC-B117-FB2C017E7A30}"/>
             </c:ext>
@@ -4129,11 +4125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197345280"/>
-        <c:axId val="197346816"/>
+        <c:axId val="1951042672"/>
+        <c:axId val="1951042128"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="197345280"/>
+        <c:axId val="1951042672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42612"/>
@@ -4169,7 +4165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197346816"/>
+        <c:crossAx val="1951042128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -4178,7 +4174,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197346816"/>
+        <c:axId val="1951042128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4190,7 +4186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197345280"/>
+        <c:crossAx val="1951042672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4617,8 +4613,8 @@
   </sheetPr>
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4779,7 +4775,7 @@
       </c>
       <c r="D29" s="25">
         <f ca="1">TODAY()</f>
-        <v>42223</v>
+        <v>42273</v>
       </c>
       <c r="J29" s="29"/>
     </row>
@@ -6059,7 +6055,7 @@
     <mergeCell ref="J22:J31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
